--- a/Documentation/TestPlan_v.0.01.xlsx
+++ b/Documentation/TestPlan_v.0.01.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lungu\Desktop\individual-track-assignment-andreea-indrilaru\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A76572-132F-4E08-81E4-1FCB6148550E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7E86E1-DBF9-4B93-9332-C1909E1A1615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="1" r:id="rId1"/>
+    <sheet name="Versioning Table" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000"/>
   <extLst>
@@ -25,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
   <si>
     <t>Project Name</t>
   </si>
   <si>
-    <t>Test Case ID</t>
-  </si>
-  <si>
     <t>Written By:</t>
   </si>
   <si>
@@ -48,9 +47,6 @@
     <t>Description:</t>
   </si>
   <si>
-    <t>Tested On:</t>
-  </si>
-  <si>
     <t>Agile Test Plan</t>
   </si>
   <si>
@@ -141,15 +137,6 @@
     <t>Get confirmation of signing up</t>
   </si>
   <si>
-    <t>Get confirmation of buying ticket</t>
-  </si>
-  <si>
-    <t>Get confirmation of removing movies</t>
-  </si>
-  <si>
-    <t>Viewing all films</t>
-  </si>
-  <si>
     <t>Signing in</t>
   </si>
   <si>
@@ -159,15 +146,9 @@
     <t xml:space="preserve">Viewing my tickets </t>
   </si>
   <si>
-    <t xml:space="preserve">Removing movies </t>
-  </si>
-  <si>
     <t>Adding movie</t>
   </si>
   <si>
-    <t>Get confirmation of adding the movie</t>
-  </si>
-  <si>
     <t xml:space="preserve">Updating schedule </t>
   </si>
   <si>
@@ -177,9 +158,6 @@
     <t>Changing username</t>
   </si>
   <si>
-    <t>Notify if chaning username was successful</t>
-  </si>
-  <si>
     <t>Sending a complaint</t>
   </si>
   <si>
@@ -195,9 +173,6 @@
     <t>Receive an email with link to reset password</t>
   </si>
   <si>
-    <t>Get confirmation of sending the complaint</t>
-  </si>
-  <si>
     <t xml:space="preserve">Filter users based on loyallity </t>
   </si>
   <si>
@@ -243,27 +218,15 @@
     <t>US-022</t>
   </si>
   <si>
-    <t>Cinema_Now is a web application for ticket purchasing.</t>
-  </si>
-  <si>
-    <t>Download ticket with QR code</t>
-  </si>
-  <si>
     <t>Viewing news</t>
   </si>
   <si>
     <t>See al news</t>
   </si>
   <si>
-    <t xml:space="preserve">See all movies </t>
-  </si>
-  <si>
     <t>Redeem vouchers</t>
   </si>
   <si>
-    <t xml:space="preserve">Get confirmation if it was successful or not </t>
-  </si>
-  <si>
     <t>View personal data</t>
   </si>
   <si>
@@ -289,13 +252,58 @@
   </si>
   <si>
     <t>Show seats</t>
+  </si>
+  <si>
+    <t>0.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show all movies </t>
+  </si>
+  <si>
+    <t>Removing movies</t>
+  </si>
+  <si>
+    <t>Remove movie.</t>
+  </si>
+  <si>
+    <t>Create ticket</t>
+  </si>
+  <si>
+    <t>Store ticket to user account</t>
+  </si>
+  <si>
+    <t>Viewing all movies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add movie </t>
+  </si>
+  <si>
+    <t>Change username</t>
+  </si>
+  <si>
+    <t>Check voucher</t>
+  </si>
+  <si>
+    <t>Create complaint.</t>
+  </si>
+  <si>
+    <t>Versioning table</t>
+  </si>
+  <si>
+    <t>first version of the test plan</t>
+  </si>
+  <si>
+    <t>14/09/2021 - v.0.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Versioning Table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -339,8 +347,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,6 +391,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,7 +432,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -423,13 +458,27 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -438,19 +487,7 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <strike/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <strike/>
@@ -464,7 +501,9 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4">
+    <tableStyle name="Table Style 1" pivot="0" count="0" xr9:uid="{3B0C5E46-5B69-4BAC-B547-766BC947D2F9}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -800,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -829,7 +868,7 @@
     </row>
     <row r="2" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -902,17 +941,17 @@
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -933,13 +972,17 @@
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="22"/>
       <c r="D6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="23"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -960,17 +1003,15 @@
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="15"/>
+      <c r="B7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="22"/>
       <c r="D7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -988,18 +1029,12 @@
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1017,13 +1052,30 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="H9" s="1"/>
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1038,31 +1090,25 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>14</v>
-      </c>
+    <row r="10" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="11"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1077,21 +1123,21 @@
     </row>
     <row r="11" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="1"/>
@@ -1108,21 +1154,21 @@
     </row>
     <row r="12" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="1"/>
@@ -1139,21 +1185,21 @@
     </row>
     <row r="13" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="1"/>
@@ -1170,21 +1216,21 @@
     </row>
     <row r="14" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="12"/>
+        <v>53</v>
+      </c>
+      <c r="C14" s="13"/>
       <c r="D14" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="1"/>
@@ -1201,21 +1247,21 @@
     </row>
     <row r="15" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="1"/>
@@ -1232,21 +1278,21 @@
     </row>
     <row r="16" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="13"/>
+        <v>80</v>
+      </c>
+      <c r="F16" s="15"/>
       <c r="G16" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="1"/>
@@ -1263,21 +1309,21 @@
     </row>
     <row r="17" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="17"/>
+        <v>78</v>
+      </c>
+      <c r="F17" s="14"/>
       <c r="G17" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="1"/>
@@ -1294,21 +1340,21 @@
     </row>
     <row r="18" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="14"/>
+        <v>82</v>
+      </c>
+      <c r="F18" s="13"/>
       <c r="G18" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="1"/>
@@ -1325,21 +1371,21 @@
     </row>
     <row r="19" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" s="11"/>
       <c r="J19" s="1"/>
@@ -1355,21 +1401,21 @@
     </row>
     <row r="20" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="1"/>
@@ -1386,21 +1432,21 @@
     </row>
     <row r="21" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="1"/>
@@ -1417,21 +1463,21 @@
     </row>
     <row r="22" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="1"/>
@@ -1448,21 +1494,21 @@
     </row>
     <row r="23" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="1"/>
@@ -1479,21 +1525,21 @@
     </row>
     <row r="24" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="1"/>
@@ -1510,21 +1556,21 @@
     </row>
     <row r="25" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H25" s="11"/>
       <c r="I25" s="1"/>
@@ -1541,21 +1587,21 @@
     </row>
     <row r="26" spans="1:21" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="11" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="9"/>
@@ -1572,21 +1618,21 @@
     </row>
     <row r="27" spans="1:21" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="9"/>
@@ -1603,21 +1649,21 @@
     </row>
     <row r="28" spans="1:21" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="11" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="9"/>
@@ -1636,21 +1682,21 @@
     </row>
     <row r="29" spans="1:21" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="11" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="9"/>
@@ -1669,21 +1715,21 @@
     </row>
     <row r="30" spans="1:21" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="11" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="9"/>
@@ -1702,21 +1748,21 @@
     </row>
     <row r="31" spans="1:21" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="11" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="9"/>
@@ -1735,21 +1781,21 @@
     </row>
     <row r="32" spans="1:21" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="9"/>
@@ -1767,24 +1813,14 @@
       <c r="U32" s="9"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
-        <v>23</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H33" s="11"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2374,14 +2410,6 @@
       <c r="U58" s="1"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -2396,24 +2424,17 @@
       <c r="U59" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C18:E18 C19:F25 A27:H30 A32:H33 A18:B25 G18:H25 A11:H17">
+  <conditionalFormatting sqref="D17:E17 A10:C32 D10:F16 G10:H32 D18:F32">
     <cfRule type="expression" dxfId="0" priority="33">
-      <formula>#REF!=TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:H26 A31:H31">
-    <cfRule type="expression" dxfId="1" priority="1">
       <formula>#REF!=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2425,4 +2446,553 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E360494D-47CC-44FA-9446-8DACEE2D2AD8}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="0" style="20" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="20" customWidth="1"/>
+    <col min="4" max="5" width="9.875" style="20" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.25">
+      <c r="A1" s="18"/>
+      <c r="B1" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1818535F-E521-4188-A437-12C008E1B9FC}">
+  <dimension ref="A2:L36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:12" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/Documentation/TestPlan_v.0.01.xlsx
+++ b/Documentation/TestPlan_v.0.01.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lungu\Desktop\individual-track-assignment-andreea-indrilaru\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7E86E1-DBF9-4B93-9332-C1909E1A1615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614AA4C7-57B9-40F4-9BFA-F1BAEE4DABDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="1" r:id="rId1"/>
-    <sheet name="Versioning Table" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Versioning Table" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>Project Name</t>
   </si>
@@ -125,30 +126,9 @@
     <t>US-015</t>
   </si>
   <si>
-    <t xml:space="preserve">Signing up </t>
-  </si>
-  <si>
-    <t>Redirected to the home page.</t>
-  </si>
-  <si>
     <t>Buying a ticket</t>
   </si>
   <si>
-    <t>Get confirmation of signing up</t>
-  </si>
-  <si>
-    <t>Signing in</t>
-  </si>
-  <si>
-    <t>Logging out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viewing my tickets </t>
-  </si>
-  <si>
-    <t>Adding movie</t>
-  </si>
-  <si>
     <t xml:space="preserve">Updating schedule </t>
   </si>
   <si>
@@ -158,21 +138,12 @@
     <t>Changing username</t>
   </si>
   <si>
-    <t>Sending a complaint</t>
-  </si>
-  <si>
     <t>Order complaints</t>
   </si>
   <si>
     <t>Show complaints ordered</t>
   </si>
   <si>
-    <t>Resetting password</t>
-  </si>
-  <si>
-    <t>Receive an email with link to reset password</t>
-  </si>
-  <si>
     <t xml:space="preserve">Filter users based on loyallity </t>
   </si>
   <si>
@@ -218,75 +189,27 @@
     <t>US-022</t>
   </si>
   <si>
-    <t>Viewing news</t>
-  </si>
-  <si>
-    <t>See al news</t>
-  </si>
-  <si>
     <t>Redeem vouchers</t>
   </si>
   <si>
-    <t>View personal data</t>
-  </si>
-  <si>
-    <t>Show info regarding the respective client</t>
-  </si>
-  <si>
-    <t>Selecting seats</t>
-  </si>
-  <si>
     <t>Edit personal data</t>
   </si>
   <si>
     <t>Update details according to user input</t>
   </si>
   <si>
-    <t>Show the tickets ordered by date desc</t>
-  </si>
-  <si>
-    <t>Payment method</t>
-  </si>
-  <si>
-    <t>Redirect user to bank page for payment</t>
-  </si>
-  <si>
-    <t>Show seats</t>
-  </si>
-  <si>
     <t>0.0.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Show all movies </t>
-  </si>
-  <si>
-    <t>Removing movies</t>
-  </si>
-  <si>
-    <t>Remove movie.</t>
-  </si>
-  <si>
-    <t>Create ticket</t>
-  </si>
-  <si>
     <t>Store ticket to user account</t>
   </si>
   <si>
-    <t>Viewing all movies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add movie </t>
-  </si>
-  <si>
     <t>Change username</t>
   </si>
   <si>
     <t>Check voucher</t>
   </si>
   <si>
-    <t>Create complaint.</t>
-  </si>
-  <si>
     <t>Versioning table</t>
   </si>
   <si>
@@ -297,6 +220,159 @@
   </si>
   <si>
     <t xml:space="preserve">   Versioning Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viewing all movies 
+-&gt; Go to "Schedule"
+-&gt; All movies appear with details.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Signing up 
+-&gt; Go to "Sign up" button situated above the menu bar. 
+-&gt; User is redirected to sign up page.
+-&gt; User fills details (e.g. First name: John
+                                            Last name: Doe
+                                            Email: j.doe@gmail.com
+                                            Address: Boschidjk 42
+                                            Password: password
+</t>
+  </si>
+  <si>
+    <t>Signing in
+-&gt; Go to "Sign in" button situated above the menu bar.
+-&gt; User is redirected to sign in page.
+-&gt; User fills his login details (e.g Email: j.doe@gmail.com
+                                                          Password: password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logging out
+-&gt; Go to "Log out"
+</t>
+  </si>
+  <si>
+    <t>Removing movies
+-&gt; Admin selects movies he wants to delete.
+-&gt; Admin presses on delete.</t>
+  </si>
+  <si>
+    <t>Adding movie
+-&gt; Admin clicks on "Add new movie" 
+-&gt; Admin completes movie details accordingly
+-&gt; Admin presses "Add".</t>
+  </si>
+  <si>
+    <t>Viewing news
+-&gt; Go to "News"
+-&gt; All news will appear.</t>
+  </si>
+  <si>
+    <t>Selecting seats
+Pre-condition: User is in the buying phase of the ticket.
+-&gt; User sees the room.
+-&gt; Seats are colored based on their availability.
+-&gt; User selects what seats he wants</t>
+  </si>
+  <si>
+    <t>Payment method
+Pre-condition: User is in the buying phase of the ticket.
+-&gt; User is asked to choose a payment method.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resetting password
+Pre-condition: User is on the login page.
+-&gt; User clicks on "Forgot password"
+-&gt; User is redirected to a new page.
+-&gt; User is asked to provide his email.
+</t>
+  </si>
+  <si>
+    <t>Sending a complaint
+Pre-condition: User must be logged in.
+-&gt; User goes to "Complaints" tab.
+-&gt; User fills in a complaint form (e.g: Title: Problem with seat
+                                                                         Description:
+My seat was very used and I could not sit on it.
+-&gt; User presses on "Send".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+View personal data
+Pre-condition: User must be logged in.
+-&gt; User clicks on "Have to fun you here, John!"
+-&gt; User is redirectied to a new page where he can see personal details</t>
+  </si>
+  <si>
+    <t>Buying a ticket
+Pre-condition: User must be logged in.
+-&gt; User goes to "Schedule"
+-&gt; User presses on "Buy ticket" for the specific movie.
+-&gt; User is redirected to a new page where he has to choose seats and nr. of tickets.</t>
+  </si>
+  <si>
+    <t>Viewing my tickets 
+Pre-condition: User must be logged in.
+-&gt; User clicks on "Have to fun you here, John!"
+-&gt; User is redirectied to a new page.
+-&gt; User clicks on "My Tickets".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See al news
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create ticket
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Show all movies 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get confirmation of signing up
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redirected to the home page.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redirected to the home page.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show the tickets ordered by date desc
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove movie.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add movie 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show info regarding the respective client
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show seats
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redirect user to bank page for payment
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create complaint
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receive an email with link to reset password
+</t>
   </si>
 </sst>
 </file>
@@ -432,7 +508,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -478,6 +554,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -839,15 +918,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
     <col min="4" max="4" width="41.125" customWidth="1"/>
     <col min="5" max="5" width="38.375" customWidth="1"/>
     <col min="6" max="6" width="19.75" customWidth="1"/>
@@ -980,7 +1059,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="1"/>
@@ -1051,12 +1130,12 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
@@ -1090,19 +1169,19 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:21" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>1</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>76</v>
+      <c r="D10" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>80</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="11" t="s">
@@ -1121,19 +1200,19 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="174" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>2</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>35</v>
+      <c r="D11" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="11" t="s">
@@ -1152,19 +1231,19 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>3</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>33</v>
+      <c r="D12" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="11" t="s">
@@ -1183,19 +1262,19 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>4</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>33</v>
+      <c r="D13" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>83</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="11" t="s">
@@ -1214,19 +1293,19 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>5</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>71</v>
+      <c r="D14" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>84</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="11" t="s">
@@ -1245,18 +1324,18 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>6</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="24" t="s">
         <v>79</v>
       </c>
       <c r="F15" s="13"/>
@@ -1281,14 +1360,14 @@
         <v>7</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="11" t="s">
@@ -1307,19 +1386,19 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>8</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>78</v>
+      <c r="D17" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>85</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="11" t="s">
@@ -1338,19 +1417,19 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>9</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>82</v>
+      <c r="D18" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="11" t="s">
@@ -1374,14 +1453,14 @@
         <v>10</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="11" t="s">
@@ -1404,14 +1483,14 @@
         <v>11</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="11" t="s">
@@ -1430,19 +1509,19 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>12</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>64</v>
+      <c r="D21" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>78</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="11" t="s">
@@ -1466,14 +1545,14 @@
         <v>13</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="11" t="s">
@@ -1492,19 +1571,19 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>14</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>67</v>
+      <c r="D23" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="11" t="s">
@@ -1528,14 +1607,14 @@
         <v>15</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="11" t="s">
@@ -1554,19 +1633,19 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>16</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>74</v>
+      <c r="D25" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="11" t="s">
@@ -1585,23 +1664,23 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:21" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" s="10" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>17</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>73</v>
+      <c r="E26" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="11" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="9"/>
@@ -1621,18 +1700,18 @@
         <v>18</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="11" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="9"/>
@@ -1647,23 +1726,23 @@
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
     </row>
-    <row r="28" spans="1:21" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" s="10" customFormat="1" ht="167.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>19</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>85</v>
+      <c r="D28" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="11" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="9"/>
@@ -1680,23 +1759,23 @@
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
     </row>
-    <row r="29" spans="1:21" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" s="10" customFormat="1" ht="111" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>20</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>47</v>
+      <c r="D29" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>91</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="11" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="9"/>
@@ -1718,18 +1797,18 @@
         <v>21</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="11" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="9"/>
@@ -1751,18 +1830,18 @@
         <v>22</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="11" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="9"/>
@@ -1784,18 +1863,18 @@
         <v>23</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="11" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="9"/>
@@ -2449,6 +2528,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D8DF69-9C42-4E16-AFB1-8D8A7302F219}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E360494D-47CC-44FA-9446-8DACEE2D2AD8}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -2468,7 +2559,7 @@
     <row r="1" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A1" s="18"/>
       <c r="B1" s="19" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2478,10 +2569,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2489,7 +2580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1818535F-E521-4188-A437-12C008E1B9FC}">
   <dimension ref="A2:L36"/>
   <sheetViews>
@@ -2501,7 +2592,7 @@
   <sheetData>
     <row r="2" spans="1:12" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="17" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
